--- a/Libro8.xlsx
+++ b/Libro8.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\prueba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\prueba\automati_pagina\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -100,10 +100,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -419,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,12 +475,9 @@
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -496,6 +492,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BEB863D667B77A46A825979263E692FD" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a1c362d86e169e0f6588205e6e08f783">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="aebc3411-dca3-42b4-b777-f8473b1c061d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d5a0368c66236d46d9ac4f74b029c73" ns3:_="">
     <xsd:import namespace="aebc3411-dca3-42b4-b777-f8473b1c061d"/>
@@ -627,15 +632,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D267F0A-1132-4EEC-A6CA-10D2C4218E20}">
   <ds:schemaRefs>
@@ -653,6 +649,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7CC77BA-1BBA-44BB-A16D-8297A312EF9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3034C7D6-F730-4F35-890D-DE53992033A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -668,12 +672,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7CC77BA-1BBA-44BB-A16D-8297A312EF9B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>